--- a/src/attributions/attributions_ig_traj_115.xlsx
+++ b/src/attributions/attributions_ig_traj_115.xlsx
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>-0</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>-0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>-0</v>
@@ -1684,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>-0</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
         <v>-0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
         <v>-0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
         <v>-0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
         <v>-0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>-0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
         <v>-0</v>
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
         <v>-0</v>
@@ -1981,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
         <v>-0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
         <v>-0</v>
@@ -2035,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>-0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
         <v>-0</v>
@@ -2145,19 +2145,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.005098140974684463</v>
+        <v>0.01739850552444757</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03618702888546101</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.005007134626525513</v>
+        <v>-0.005742339325050138</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.002873034930628433</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
@@ -2169,22 +2169,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.02402916885494059</v>
+        <v>0.002641372930376825</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01957700557089472</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.0090942724278629</v>
+        <v>-0.01497138712529073</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.01378724476227392</v>
       </c>
       <c r="P4" t="n">
         <v>-0</v>
@@ -2196,22 +2196,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.005964352902129322</v>
+        <v>-0.002137656601023212</v>
       </c>
       <c r="U4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01838996819696139</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.06304909716372581</v>
+        <v>0.006981212855439578</v>
       </c>
       <c r="X4" t="n">
-        <v>-0</v>
+        <v>-0.01521607397313131</v>
       </c>
       <c r="Y4" t="n">
         <v>-0</v>
@@ -2220,79 +2220,79 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.06603439671414549</v>
+        <v>0.02192900900209038</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.09324834623119041</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.01106481280626105</v>
+        <v>0.02555396019091213</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>0.007598771864582156</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.01784970379571643</v>
+        <v>0.006921543295291488</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.001317964019632032</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.01199157646410234</v>
+        <v>-0.01418139489130135</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.002710330579712615</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.08272415212396794</v>
+        <v>0.05960070425551829</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.01102241748471248</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.09212117701013174</v>
+        <v>-0.03301283553006293</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.008320540392149845</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
@@ -2304,22 +2304,22 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.00829975070775984</v>
+        <v>0.008635538320606652</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.06045167363294358</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.03317903752929388</v>
+        <v>-0.02442935907046026</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>-0.008869074972720948</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2328,25 +2328,25 @@
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.04930609007272737</v>
+        <v>0.01914346145913491</v>
       </c>
       <c r="BN4" t="n">
         <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.0365743356744158</v>
+        <v>0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.03593613230650747</v>
+        <v>0.009105909595465252</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.01460141171641152</v>
       </c>
       <c r="BR4" t="n">
         <v>-0</v>
@@ -2358,49 +2358,49 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.001627480200016505</v>
+        <v>-0.006437270445469941</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>-0.007000281546003625</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.006781995368760901</v>
+        <v>0.002372147887940273</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>-0.003991101810406048</v>
       </c>
       <c r="CA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB4" t="n">
         <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.03686910844355695</v>
+        <v>-2.015610064424472e-05</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.02685761617180134</v>
+        <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.02922472402294606</v>
+        <v>0.001151817854737306</v>
       </c>
       <c r="CI4" t="n">
-        <v>0</v>
+        <v>0.01879657934058057</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
@@ -2409,85 +2409,85 @@
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
         <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0.0005238524068534574</v>
+        <v>0.01092361311107419</v>
       </c>
       <c r="CO4" t="n">
         <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.004471862907587726</v>
+        <v>-0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.05120155782701867</v>
+        <v>0.01300897547401754</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.00750857768303027</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU4" t="n">
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.03391019663789457</v>
+        <v>0.001300875613105316</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.03219148314296251</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.02133117348783319</v>
+        <v>0.0002453227877442921</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0</v>
+        <v>0.01853158068859971</v>
       </c>
       <c r="DB4" t="n">
         <v>-0</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.1240768860442084</v>
+        <v>0.006336494252685357</v>
       </c>
       <c r="DG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.05619994884756454</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.04446061512483611</v>
+        <v>-0.008996302803678032</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>0.02123245087062119</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
       </c>
       <c r="DL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM4" t="n">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.03044139191867021</v>
+        <v>0.008903917328329816</v>
       </c>
       <c r="DP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0.006379105716848496</v>
+        <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.07195015239458803</v>
+        <v>0.0003160984357594222</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0.007002971127707047</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
@@ -2520,133 +2520,133 @@
         <v>-0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.05909580500102813</v>
+        <v>-0.002798529774703979</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.07475619867105274</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.02272036001845001</v>
+        <v>-0.02959668398390957</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>-0.005337932667184205</v>
       </c>
       <c r="EC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE4" t="n">
         <v>-0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.06338757734468299</v>
+        <v>-0.0003127639305509337</v>
       </c>
       <c r="EH4" t="n">
         <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.02137042714192135</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.06025471798984303</v>
+        <v>0.002596429876014659</v>
       </c>
       <c r="EK4" t="n">
-        <v>0</v>
+        <v>0.003262844418450365</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
         <v>0</v>
       </c>
       <c r="EN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO4" t="n">
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.005907725245877</v>
+        <v>0.004869156295240714</v>
       </c>
       <c r="EQ4" t="n">
         <v>-0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.0005537648263745138</v>
+        <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.03633443822554209</v>
+        <v>0.001381945257301866</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0</v>
+        <v>0.02967482391157765</v>
       </c>
       <c r="EU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV4" t="n">
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.02885924674255804</v>
+        <v>-0.0006967013835980551</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0.02133590840136446</v>
+        <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.02925087486580354</v>
+        <v>0.0005897138296276736</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.01560091811697879</v>
       </c>
       <c r="FD4" t="n">
         <v>0</v>
       </c>
       <c r="FE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.0196035380450066</v>
+        <v>-0.02620797728739058</v>
       </c>
       <c r="FI4" t="n">
         <v>0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.01871986831135631</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.01388665030337654</v>
+        <v>-0.03619866867127072</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.007132599705005279</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>-0</v>
@@ -2658,19 +2658,19 @@
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0.04337126295292339</v>
+        <v>-0.0003350869764636546</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.08416202506620551</v>
+        <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.02229325856342532</v>
+        <v>0.005179798462387117</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.03356767539091636</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
@@ -2679,31 +2679,31 @@
         <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.002992280384016336</v>
+        <v>-0.01833923974834067</v>
       </c>
       <c r="GA4" t="n">
         <v>0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.05964848119914645</v>
+        <v>0</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>0</v>
+        <v>0.007042560246551811</v>
       </c>
       <c r="GE4" t="n">
         <v>0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
         <v>0</v>
@@ -2711,154 +2711,154 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.1409044453303748</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01262919321800356</v>
+        <v>-0.09159443413022268</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.001200457063905956</v>
+        <v>-0.01235022612595298</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.06968098947748017</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0.1204942024403402</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003575767317413781</v>
+        <v>-0.07842708799723951</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.005102215050624603</v>
+        <v>-0.0283735682603045</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.04776497050888002</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>-0.0153150678567363</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001569454628661105</v>
+        <v>0.0008350640438035573</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02258962274519866</v>
+        <v>0.01993123572996437</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.002687296993573096</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.08584742144592239</v>
       </c>
       <c r="AD5" t="n">
         <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.01005879203564115</v>
+        <v>0.05680024210239169</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.047276512580222</v>
+        <v>0.08644658795154131</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0.04336974979687259</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>0.01394410691895959</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.01372811744084129</v>
+        <v>-0.04192181007344316</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.03375400724130641</v>
+        <v>-0.03248210643864978</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.01693190742219603</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.3694732690704549</v>
       </c>
       <c r="AV5" t="n">
         <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.02560516460937515</v>
+        <v>-0.03155941004416073</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.0765301751010766</v>
+        <v>0.1540182278081973</v>
       </c>
       <c r="AY5" t="n">
         <v>0</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.2233707855824456</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
         <v>0</v>
@@ -2876,16 +2876,16 @@
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0</v>
+        <v>0.007663915078643851</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.01260748028093509</v>
+        <v>-0.06949816666800089</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.01628137197822951</v>
+        <v>-0.06632791682304905</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
@@ -2894,34 +2894,34 @@
         <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.00972388856318232</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>-0.01699724384174043</v>
       </c>
       <c r="BN5" t="n">
         <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.0219783699132412</v>
+        <v>0.07279433158847777</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.008843898851037705</v>
+        <v>0.08377065136192065</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.1052694867422741</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
@@ -2930,16 +2930,16 @@
         <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>-0.04779072600507383</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.0006086562845672325</v>
+        <v>0.05739533664533413</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.01722735280154162</v>
+        <v>0.005496730125182404</v>
       </c>
       <c r="BZ5" t="n">
         <v>0</v>
@@ -2948,88 +2948,88 @@
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.09346174999882793</v>
+        <v>0</v>
       </c>
       <c r="CC5" t="n">
         <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.08773802312167021</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0.003684516301219858</v>
+        <v>0.01872388778155186</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.02162051795153688</v>
+        <v>-0.02774263379435012</v>
       </c>
       <c r="CI5" t="n">
         <v>-0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.04500451103181678</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>0.0318789598762315</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.01149708858600361</v>
+        <v>-0.06171534558160793</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.03747198728395401</v>
+        <v>-0.1156444770586196</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
         <v>-0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.02723713002999946</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.09172941320296943</v>
       </c>
       <c r="CX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.0004509012482584811</v>
+        <v>0.035842666727775</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.02118355243164889</v>
+        <v>0.0126453666736176</v>
       </c>
       <c r="DA5" t="n">
         <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.03553166459270413</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
@@ -3038,79 +3038,79 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.004512406944717457</v>
       </c>
       <c r="DG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0.00536715006569933</v>
+        <v>0.03688527384479826</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.009306735370215287</v>
+        <v>0.03284314482253818</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0.003247756236034233</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.1377785297253387</v>
       </c>
       <c r="DP5" t="n">
         <v>-0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.02891692367757077</v>
+        <v>0.01197806184298013</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.05742225773753019</v>
+        <v>-0.02450218086683585</v>
       </c>
       <c r="DS5" t="n">
         <v>0</v>
       </c>
       <c r="DT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0.003339209306256478</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.006438885416509966</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>-0.03639765615133109</v>
+        <v>-0.02587050601633179</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.008959554822858703</v>
+        <v>0.0814917448638852</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.03200247073056256</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
         <v>-0</v>
@@ -3119,25 +3119,25 @@
         <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.03130016769014329</v>
       </c>
       <c r="EH5" t="n">
         <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0.01775174681265353</v>
+        <v>-0.00263958476147946</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.03716589960000822</v>
+        <v>0.05133306121377285</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.02976126789765906</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>-0</v>
@@ -3146,106 +3146,106 @@
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.09281009045915591</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0.03486329445802894</v>
+        <v>0.05704282489107986</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.06043007271491845</v>
+        <v>0.02559175079340365</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0.07006489783930116</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.09484193985256166</v>
       </c>
       <c r="EZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0.003175139753373054</v>
+        <v>0.0456294111240801</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.01812953134279451</v>
+        <v>-0.01776612505630383</v>
       </c>
       <c r="FC5" t="n">
         <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.04086419596100911</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>0.01523409050219039</v>
       </c>
       <c r="FI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0.07260015154069288</v>
+        <v>-0.0603214205834819</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.0039506759787249</v>
+        <v>0.0492342495665702</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>-0.08654254532631241</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.002724442131398432</v>
       </c>
       <c r="FR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.01223101431066967</v>
+        <v>0.1049130900066486</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.1298102193344442</v>
+        <v>0.1466005001463694</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.08009095073367352</v>
+        <v>0</v>
       </c>
       <c r="FX5" t="n">
         <v>-0</v>
@@ -3254,28 +3254,28 @@
         <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.02484350941877112</v>
       </c>
       <c r="GA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0.03198697056217461</v>
+        <v>0.01207469195550987</v>
       </c>
       <c r="GC5" t="n">
         <v>0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE5" t="n">
         <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.01377732919093153</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -3283,25 +3283,25 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01450472369618632</v>
+        <v>0.01904904689436749</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05459064147799093</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01454321249146688</v>
+        <v>-0.0007586192052064278</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>0.004269821543246322</v>
       </c>
       <c r="G6" t="n">
         <v>-0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -3310,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01078107796032662</v>
+        <v>0.008879286292526285</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0360291414472366</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.003066865844620809</v>
+        <v>-0.005923020902331678</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.004660932127397947</v>
       </c>
       <c r="P6" t="n">
         <v>-0</v>
@@ -3334,25 +3334,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.007282253013909578</v>
+        <v>0.0005260718908250357</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01360346103425569</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03864168133001514</v>
+        <v>0.004563043255058226</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0.008605527385469474</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -3364,25 +3364,25 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.02812516311405372</v>
+        <v>0.02328167373965352</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.02964161816106396</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.004808864148520659</v>
+        <v>0.0146253218392908</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>-0.001791387417008212</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
         <v>-0</v>
@@ -3391,49 +3391,49 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.02148541462847672</v>
+        <v>0.004938990786855365</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.0007830320968478261</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.02839841872607247</v>
+        <v>-0.007964785022715052</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.004118808934580444</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.1135073721349558</v>
+        <v>0.05433279448624147</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.04432758368364732</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.005455428667094773</v>
+        <v>0.001529349276824727</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.01137490774360372</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
         <v>0</v>
@@ -3445,19 +3445,19 @@
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.01640463660001938</v>
+        <v>0.002235038332464088</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.06705951537541573</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.02007768265681454</v>
+        <v>-0.02216431864687115</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>-0.002415429280862369</v>
       </c>
       <c r="BI6" t="n">
         <v>-0</v>
@@ -3466,28 +3466,28 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.05296005161150626</v>
+        <v>0.008233161443335718</v>
       </c>
       <c r="BN6" t="n">
         <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.04730191266413272</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.05354464990752282</v>
+        <v>0.006370045996792021</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>0.008013766426333767</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
@@ -3496,49 +3496,49 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0.0004007634027526338</v>
+        <v>-0.004795332767695523</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>-0.01516698077736862</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.009473331663337636</v>
+        <v>0.0007096285440589249</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>-0.001725452357147309</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.03507028767921659</v>
+        <v>-0.002103875267177468</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0.0345660219362161</v>
+        <v>0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.01440272867319242</v>
+        <v>-0.004540114263366529</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.009127082346019673</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
@@ -3547,112 +3547,112 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.02570978779017926</v>
+        <v>0.006892867125634539</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.0329147346523937</v>
+        <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.02550216166303894</v>
+        <v>-0.0004924948927284749</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.01259362693183778</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.04014116367358272</v>
+        <v>-0.0005968914496668703</v>
       </c>
       <c r="CX6" t="n">
         <v>0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0.03064610999700876</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.004959221243680273</v>
+        <v>-0.00695007752276067</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.01115245119350684</v>
       </c>
       <c r="DB6" t="n">
         <v>-0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.08368526686550046</v>
+        <v>0.01050559834760885</v>
       </c>
       <c r="DG6" t="n">
         <v>0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0.02255511602360174</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.001440247731335682</v>
+        <v>7.732319973330312e-05</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>0.03485440364439656</v>
       </c>
       <c r="DK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0.02884188506721077</v>
+        <v>0.01023139315337122</v>
       </c>
       <c r="DP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>-0.004105860229175811</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.07579351606133919</v>
+        <v>0.002928408402360509</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>0.003646566908747039</v>
       </c>
       <c r="DT6" t="n">
         <v>0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV6" t="n">
         <v>-0</v>
@@ -3661,160 +3661,160 @@
         <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.01356884353430023</v>
+        <v>-0.01435306296823524</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.03566839336758327</v>
+        <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.02428722732688273</v>
+        <v>-0.01126672740608696</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>0.008980188302475782</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
       </c>
       <c r="EE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.04606887017135791</v>
+        <v>0.0005765092005802435</v>
       </c>
       <c r="EH6" t="n">
         <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.03038904349176639</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.08620445379815703</v>
+        <v>-0.002745595360562966</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>-0.0008820768848152225</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.01543217668533445</v>
+        <v>-0.01000612404023353</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER6" t="n">
-        <v>-0.0003758389630467936</v>
+        <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.04437979143502956</v>
+        <v>-0.01402906001765609</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>0.03351666059857906</v>
       </c>
       <c r="EU6" t="n">
         <v>-0</v>
       </c>
       <c r="EV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.03048778950151467</v>
+        <v>-0.002604564902636275</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0.01871114834152297</v>
+        <v>0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.01650598794542592</v>
+        <v>-0.007397723557009846</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.008844728530256663</v>
       </c>
       <c r="FD6" t="n">
         <v>0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG6" t="n">
         <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0.04327621100446184</v>
+        <v>-0.02036503234960488</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0.0257267555399952</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.02512723506347059</v>
+        <v>-0.01769008399657494</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.02009829347894437</v>
       </c>
       <c r="FM6" t="n">
         <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
         <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>-0.02221573695732511</v>
+        <v>0.001554424516638812</v>
       </c>
       <c r="FR6" t="n">
         <v>0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.04899432670294659</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.02109849790939496</v>
+        <v>0.01212815937724983</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.01170906163065928</v>
       </c>
       <c r="FV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
         <v>0</v>
@@ -3823,25 +3823,25 @@
         <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.02930069277428769</v>
+        <v>-0.01637242442215818</v>
       </c>
       <c r="GA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.05567752205924056</v>
+        <v>0</v>
       </c>
       <c r="GC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>0.005412338783210733</v>
       </c>
       <c r="GE6" t="n">
         <v>-0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
         <v>0</v>
@@ -3849,22 +3849,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.08514066380563266</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01814348468327974</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05445214997410941</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.006778480228819072</v>
+        <v>-0.006504502584473776</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-0</v>
@@ -3873,184 +3873,184 @@
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>0.02987236098694643</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.0450960194749587</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.009158270077433547</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02280006391725921</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.05068749855252394</v>
+        <v>-0.06299203260168069</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>-0.01230716161193877</v>
       </c>
       <c r="S7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>-0.003948937940933446</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0312963057664361</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01012256981195451</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04092326597344505</v>
+        <v>0.01303672419227266</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0</v>
+        <v>0.006494583501457419</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.07095150743648922</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.0185311537440211</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0173057296000013</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.04814473264362746</v>
+        <v>0.02851849278576666</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>0.02294168317366611</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.03977983198782763</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.004235799816002397</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.04938487003208001</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.01074912801519867</v>
+        <v>-0.0290732683045924</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>-0.0182441094296223</v>
       </c>
       <c r="AT7" t="n">
         <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.2410543406198931</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.0374023394295616</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.1533820117641613</v>
+        <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.1192698833299345</v>
+        <v>0.1207228411724405</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0</v>
+        <v>0.00604645310268722</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0</v>
+        <v>-0.04429596569276322</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.01453775991290819</v>
+        <v>-0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.03860971871097613</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.04114142357158887</v>
+        <v>-0.09532769357686441</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
         <v>-0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>-0.02972520037016202</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>-0.03270516376531708</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.05976794063148877</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0.001403315570450597</v>
+        <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.09034385492004758</v>
+        <v>0.1093826317437907</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
@@ -4062,76 +4062,76 @@
         <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>0.01817107437092769</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>-0.02601289155964639</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.0004134265303895576</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>-0.02322323549011942</v>
+        <v>0</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.02043031535120638</v>
+        <v>0.001192303994262786</v>
       </c>
       <c r="BZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>-0</v>
+        <v>-0.005501877591478925</v>
       </c>
       <c r="CD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.03331674879899296</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.02000310295414401</v>
+        <v>-0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0.04201206995471678</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.003208661805546761</v>
+        <v>0.005122385098894132</v>
       </c>
       <c r="CI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0</v>
+        <v>0.04487532099585066</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>0.008403490821796724</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.01731455300066635</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0.05959014100890441</v>
+        <v>-0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.08932044583251054</v>
+        <v>-0.01981380439422476</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4140,163 +4140,163 @@
         <v>-0</v>
       </c>
       <c r="CT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>-0</v>
+        <v>-0.009086629140398339</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.04084965873120205</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.02247736606738292</v>
+        <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0.04157340893126782</v>
+        <v>-0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.005637331399431338</v>
+        <v>0.007982490482278878</v>
       </c>
       <c r="DA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
         <v>-0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0.0354717157047994</v>
       </c>
       <c r="DE7" t="n">
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>-0</v>
+        <v>-0.05967765031743179</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.01753138524509039</v>
+        <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0.06402546974821383</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.005353415655972457</v>
+        <v>0.05098776593641139</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>0</v>
+        <v>-0.01648530782068989</v>
       </c>
       <c r="DN7" t="n">
         <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>0.02507535565767952</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.008068240341123009</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0.04529712462382536</v>
+        <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.03760887868441633</v>
+        <v>-0.02410008480086345</v>
       </c>
       <c r="DS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT7" t="n">
         <v>0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>-0</v>
+        <v>-0.03160470545230103</v>
       </c>
       <c r="DW7" t="n">
         <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.02492855915402125</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.014263199822865</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.04226396983206109</v>
+        <v>-0</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.01775202178153537</v>
+        <v>0.02302656524779656</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED7" t="n">
         <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>0</v>
+        <v>0.01216883376053566</v>
       </c>
       <c r="EF7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.02043752852711681</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.01184896361918699</v>
+        <v>-0</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.03465909867653256</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.00868007979785541</v>
+        <v>0.03040781621295028</v>
       </c>
       <c r="EK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
         <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>0.04627476573106086</v>
       </c>
       <c r="EO7" t="n">
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.07081247848223471</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.04509948996729805</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0.04814244997169796</v>
+        <v>0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.0016189968720645</v>
+        <v>0.009247352182649615</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
         <v>-0</v>
@@ -4305,25 +4305,25 @@
         <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>0</v>
+        <v>0.05103334439994429</v>
       </c>
       <c r="EX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.05253228089023151</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.0167640410091776</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0.03310578403556845</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.01765271666506141</v>
+        <v>0.005228010507863306</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD7" t="n">
         <v>0</v>
@@ -4332,25 +4332,25 @@
         <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>0.02248690864656036</v>
       </c>
       <c r="FG7" t="n">
         <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.07491157824680332</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.002399280900701919</v>
+        <v>0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.002704260589471637</v>
+        <v>0</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.0131115166804668</v>
+        <v>0.007264804774371004</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM7" t="n">
         <v>0</v>
@@ -4359,61 +4359,61 @@
         <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0.04478282437946282</v>
       </c>
       <c r="FP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0</v>
+        <v>-0.06540306828357749</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.0001545902494168781</v>
+        <v>0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0.02148535307752983</v>
+        <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.05075134612483851</v>
+        <v>0.07755682145994583</v>
       </c>
       <c r="FU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW7" t="n">
         <v>-0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0</v>
+        <v>0.004190790431210084</v>
       </c>
       <c r="FY7" t="n">
         <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.06165555661527833</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.01533305635421869</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.03918332673048285</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
         <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF7" t="n">
         <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0</v>
+        <v>0.03879564429339376</v>
       </c>
     </row>
     <row r="8">
@@ -4421,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>-0</v>
@@ -4475,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -4502,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>-0</v>
@@ -4529,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
         <v>-0</v>
@@ -4556,13 +4556,13 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
         <v>-0</v>
@@ -4583,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
         <v>-0</v>
@@ -4610,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
         <v>-0</v>
@@ -4664,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH8" t="n">
         <v>-0</v>
@@ -4691,13 +4691,13 @@
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
         <v>-0</v>
@@ -4745,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI8" t="n">
         <v>-0</v>
@@ -4772,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR8" t="n">
         <v>-0</v>
@@ -4826,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
         <v>-0</v>
@@ -4853,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES8" t="n">
         <v>-0</v>
@@ -4880,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB8" t="n">
         <v>-0</v>
@@ -4907,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK8" t="n">
         <v>-0</v>
@@ -4987,46 +4987,46 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.2785117865523513</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02516471357648958</v>
+        <v>-0.1432577114387407</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.007082925163766339</v>
+        <v>-0.05494103971449385</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>-0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.03909243955762445</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.2271498121730594</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02804517609828976</v>
+        <v>-0.1692641082272083</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.02961639645348554</v>
+        <v>-0.08867930885519551</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -5035,106 +5035,106 @@
         <v>-0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.04133901115733407</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.006901640901540006</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.0009473912341261449</v>
+        <v>0.002865187419728073</v>
       </c>
       <c r="W9" t="n">
-        <v>-3.051657290476655e-11</v>
+        <v>-5.195247140712843e-11</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.0009558554542143759</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.1403311569291864</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.03845959233540634</v>
+        <v>0.0529030200876849</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.04058026441760196</v>
+        <v>-0.02357427540096167</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.03690541964788026</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>0.03544009836987062</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.01439184668630095</v>
+        <v>-0.03549781832549769</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.009921132866396589</v>
+        <v>-0.07073920452920754</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.002238921164216121</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
         <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.4987015971079656</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0.002317424084181981</v>
+        <v>-0.007064639793640371</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0.003274842381426988</v>
+        <v>0.1331394259571219</v>
       </c>
       <c r="AY9" t="n">
         <v>0</v>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.1072166928293731</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
         <v>0</v>
@@ -5152,52 +5152,52 @@
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.006939878045736839</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.04331483360219476</v>
+        <v>-0.09386589299441743</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.006092411729356591</v>
+        <v>-0.1859840940023128</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
         <v>-0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.0137727982544557</v>
+        <v>-0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0</v>
+        <v>0.06455133797851413</v>
       </c>
       <c r="BN9" t="n">
         <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.01278318517596133</v>
+        <v>0.06279404938572214</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.007304958988582043</v>
+        <v>0.08714237839627059</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR9" t="n">
         <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.0401567743056165</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
@@ -5206,70 +5206,70 @@
         <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>-0.05347687963596548</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>-0.005124182477639108</v>
+        <v>0.06586065111483112</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.01044008573972114</v>
+        <v>0.01126749968165838</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.06541357252208106</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
         <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0</v>
+        <v>-0.1090345126166126</v>
       </c>
       <c r="CF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0.01076737321013306</v>
+        <v>0.01470363077633756</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.02966890638608413</v>
+        <v>-0.008703644099524739</v>
       </c>
       <c r="CI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.01736414857359433</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>0.03069818938430116</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0.01814941874672365</v>
+        <v>-0.1605585063691602</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.03555399563583744</v>
+        <v>-0.1144066924424921</v>
       </c>
       <c r="CR9" t="n">
         <v>0</v>
@@ -5278,79 +5278,79 @@
         <v>-0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.03523573679338817</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>-0.09492637125717281</v>
       </c>
       <c r="CX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0.01247721640819623</v>
+        <v>0.0370723311699576</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.02521331359099813</v>
+        <v>0.00892548159175648</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.01850129127264293</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE9" t="n">
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>-0</v>
+        <v>-0.008339816040856367</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0.009552227809562767</v>
+        <v>0.0933157780835456</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.01568454633505772</v>
+        <v>0.02204069653503572</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK9" t="n">
         <v>0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0.02326660673708933</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.1044418239251887</v>
       </c>
       <c r="DP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.006718545492150386</v>
+        <v>0.01340417576505098</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.00897780551422373</v>
+        <v>-0.01669833259571806</v>
       </c>
       <c r="DS9" t="n">
         <v>0</v>
@@ -5359,34 +5359,34 @@
         <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.02516912093804463</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW9" t="n">
         <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.04370286898197853</v>
       </c>
       <c r="DY9" t="n">
         <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>-0.004874696372218235</v>
+        <v>-0.01218519731781227</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.0230803878304339</v>
+        <v>0.1103628271689794</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC9" t="n">
         <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.01833496333348252</v>
+        <v>-0</v>
       </c>
       <c r="EE9" t="n">
         <v>0</v>
@@ -5395,324 +5395,324 @@
         <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.04537489249841273</v>
       </c>
       <c r="EH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0.02665383360792994</v>
+        <v>0.009314443078928506</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.009957337016510304</v>
+        <v>0.02980757006620184</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.01431743787832452</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.07698505852704557</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0.0166616299409697</v>
+        <v>-0.0453478796940911</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.05057887290752695</v>
+        <v>-0.03174507369533967</v>
       </c>
       <c r="ET9" t="n">
         <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.0447945648740515</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>-0</v>
+        <v>-0.09469292448661615</v>
       </c>
       <c r="EZ9" t="n">
         <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0.01179676762623097</v>
+        <v>0.02597374077392445</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.02777947627361118</v>
+        <v>0.002559192218680078</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD9" t="n">
         <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.02267601290898562</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG9" t="n">
         <v>-0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>-0.05427355580368762</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0.02869626497685004</v>
+        <v>0.03968464771876511</v>
       </c>
       <c r="FK9" t="n">
-        <v>-0.010693337102759</v>
+        <v>0.1471711600862315</v>
       </c>
       <c r="FL9" t="n">
         <v>0</v>
       </c>
       <c r="FM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.02087588203210387</v>
+        <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
         <v>-0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>-0</v>
+        <v>0.05635314101895284</v>
       </c>
       <c r="FR9" t="n">
         <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.007203741366775838</v>
+        <v>0.06865864645205759</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.1200903487110377</v>
+        <v>0.2362630241581652</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV9" t="n">
         <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.00197108444472707</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
         <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>0.001425183784971725</v>
       </c>
       <c r="GA9" t="n">
         <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>-0.01347943091004467</v>
+        <v>-0.01962287544667134</v>
       </c>
       <c r="GC9" t="n">
         <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
         <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.01305257018874251</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.2745253914044014</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1061008476085368</v>
+        <v>-0.1449605846994911</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.03971610298411125</v>
+        <v>-0.1224351501019365</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0754679336295612</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1236375928875855</v>
+        <v>0.01847815555385294</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.1797731358886533</v>
       </c>
       <c r="L10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1295625461307343</v>
+        <v>-0.1363022724538857</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.06610803168743776</v>
+        <v>-0.1492260053023874</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02662771633534968</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1324017995305242</v>
+        <v>0.00465871508841684</v>
       </c>
       <c r="R10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>0.01523961045896981</v>
       </c>
       <c r="U10" t="n">
         <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.01717120218919365</v>
+        <v>-0.007826391182294208</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.0004003786448951361</v>
+        <v>-0.01496902919642264</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02380830889173356</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
         <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.01012546650866235</v>
+        <v>0.0440058512652355</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0</v>
+        <v>0.04094549484929661</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.1641739671406644</v>
+        <v>0.0556559707213999</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.01538373716665501</v>
+        <v>0.007905508479260743</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.002253692573878153</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.1211906889739645</v>
+        <v>0.02675425200446559</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>-0.001702180926879293</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.02285676850733556</v>
+        <v>-0.04426783777773425</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.005266230640522658</v>
+        <v>-0.08117777466235107</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0.04717293342442627</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.03934540329026639</v>
+        <v>-0.02615862935596336</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.2496530827979242</v>
       </c>
       <c r="AV10" t="n">
         <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>-0.04410000144050683</v>
+        <v>-0.02434894070762251</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.08146693973100533</v>
+        <v>-0.03189908640615327</v>
       </c>
       <c r="AY10" t="n">
-        <v>-0.06884483583977345</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0.2420253103350433</v>
+        <v>-0.1061167037674458</v>
       </c>
       <c r="BB10" t="n">
         <v>0</v>
@@ -5721,79 +5721,79 @@
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0</v>
+        <v>-0.02607377524774786</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.1095462881676865</v>
+        <v>-0.1032070929955103</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.01980393911489053</v>
+        <v>-0.2273554842775277</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0.009537336030077807</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
         <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.03168565496856394</v>
+        <v>0.002561009173256118</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>0.1317056847353663</v>
       </c>
       <c r="BN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0.04200087847107037</v>
+        <v>0.1329982972479603</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.02318816949982255</v>
+        <v>0.03253170062200614</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.04936539280590471</v>
+        <v>-0</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.08820886970181205</v>
+        <v>0.03032139262694911</v>
       </c>
       <c r="BT10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>0.07587110340410218</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>-0.0456760695437271</v>
+        <v>0.01500711288948846</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.04483076702781728</v>
+        <v>0.03194098070229598</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.02993495449229315</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.03178033908680904</v>
+        <v>0.01641544521761219</v>
       </c>
       <c r="CC10" t="n">
         <v>0</v>
@@ -5802,79 +5802,79 @@
         <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>-0</v>
+        <v>-0.08451711929851143</v>
       </c>
       <c r="CF10" t="n">
         <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0.02295593794475728</v>
+        <v>0.02733597780248888</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.02777813381869395</v>
+        <v>0.003635503615845289</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.01861976951648046</v>
+        <v>-0</v>
       </c>
       <c r="CJ10" t="n">
         <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.06701712471138387</v>
+        <v>0.02065220098070933</v>
       </c>
       <c r="CL10" t="n">
         <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0</v>
+        <v>0.09775504703166843</v>
       </c>
       <c r="CO10" t="n">
         <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.1839633735376646</v>
+        <v>-0.03580565328622332</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.09869742603758967</v>
+        <v>-0.0385509329121776</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0.0461713661962774</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
         <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.01976031145850814</v>
+        <v>0.03535243228993902</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>-0.06954687948307403</v>
       </c>
       <c r="CX10" t="n">
         <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0.02272744188328131</v>
+        <v>0.05458244577706018</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.02814545184864373</v>
+        <v>0.001091956466000038</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.04864885734073016</v>
+        <v>0</v>
       </c>
       <c r="DB10" t="n">
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.04693877195785687</v>
+        <v>0.02104462064016124</v>
       </c>
       <c r="DD10" t="n">
         <v>-0</v>
@@ -5883,52 +5883,52 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.09675253162293691</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0.03974616855894231</v>
+        <v>0.06552879219270215</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.01251837320296634</v>
+        <v>0.01577391593934169</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.03006395840050666</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0.0312894729464075</v>
+        <v>-0.001850629672211744</v>
       </c>
       <c r="DM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.07486613394640501</v>
       </c>
       <c r="DP10" t="n">
         <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.1187789031257535</v>
+        <v>-0.02209664057765293</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.05797885175629467</v>
+        <v>0.05552652152020453</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0.09303927091377891</v>
+        <v>0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.07860134136078209</v>
+        <v>0.02362958519955357</v>
       </c>
       <c r="DV10" t="n">
         <v>0</v>
@@ -5937,52 +5937,52 @@
         <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>0.05271917626728646</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.01753834743166882</v>
+        <v>0.06861089512605004</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.08797596480769171</v>
+        <v>0.1051861376816593</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.05743292166865735</v>
+        <v>-0</v>
       </c>
       <c r="EC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>-0.02685721414480251</v>
+        <v>0.03293490282061057</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>-0</v>
+        <v>0.02498733826670445</v>
       </c>
       <c r="EH10" t="n">
         <v>0</v>
       </c>
       <c r="EI10" t="n">
-        <v>-0.1010227605319564</v>
+        <v>-0.00477319077336208</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.007167296419797289</v>
+        <v>0.02716074550046153</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.09730358868666029</v>
+        <v>-0</v>
       </c>
       <c r="EL10" t="n">
         <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>-0.01660835604167617</v>
+        <v>0.06561278366840263</v>
       </c>
       <c r="EN10" t="n">
         <v>0</v>
@@ -5991,136 +5991,136 @@
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>-0.111357159385348</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0.06565890841914807</v>
+        <v>0.052937600675882</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.09377415916959685</v>
+        <v>-0.02151764540172563</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.1083967312400633</v>
+        <v>-0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0.03096229010106491</v>
+        <v>-0.008792222223021598</v>
       </c>
       <c r="EW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
         <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>-0</v>
+        <v>-0.07541156500817491</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0.02764569414340184</v>
+        <v>0.06137415558777666</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.04051637153369692</v>
+        <v>0.01944123988631179</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.03701564619008883</v>
+        <v>-0</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.06529836203386893</v>
+        <v>0.01471003988619573</v>
       </c>
       <c r="FF10" t="n">
         <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0</v>
+        <v>0.05664064162543751</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0.08522859050373123</v>
+        <v>-0.05070934129762763</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.03947859491299876</v>
+        <v>0.09478704247136337</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.04566576137841895</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
         <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>-0.08453417768508527</v>
+        <v>0.02464140904851663</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.05969897940765066</v>
       </c>
       <c r="FR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.1240624614953532</v>
+        <v>0.001791293593768653</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.07523892155093985</v>
+        <v>-0.04536098641690913</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.005322228953063435</v>
+        <v>0</v>
       </c>
       <c r="FV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.06342414334021415</v>
+        <v>0.1262741690430763</v>
       </c>
       <c r="FX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
         <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.02221495370885925</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>-0.01708000135360241</v>
+        <v>-0.005412081458538316</v>
       </c>
       <c r="GC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.1040940443116002</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.05181918507908379</v>
+        <v>0.111319346209194</v>
       </c>
       <c r="GG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -6128,100 +6128,100 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.05559055476198405</v>
+        <v>0.02540000141573279</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08864058257021148</v>
+        <v>-0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02055075943707491</v>
+        <v>-0.07499936073843123</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.05870595944715889</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.04897065897062056</v>
+        <v>-0.0374443159699336</v>
       </c>
       <c r="L11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06645398129487515</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.009726569133967633</v>
+        <v>-0.08855585402626022</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.05372925941006011</v>
       </c>
       <c r="P11" t="n">
         <v>-0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.002029653297619312</v>
+        <v>-0.002127093029519373</v>
       </c>
       <c r="U11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.01556838254878234</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.0183729169934945</v>
+        <v>-0.003927999781010699</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.003233983465786348</v>
       </c>
       <c r="Y11" t="n">
         <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
         <v>-0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.05979556860232026</v>
+        <v>0.05449645777213624</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.07114844438499783</v>
+        <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.04111426909351764</v>
+        <v>0.05196605564680572</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.02569733197834966</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -6236,46 +6236,46 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.01491437059936503</v>
+        <v>-0.01633082850504183</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0.003181398349845985</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.009085202834183681</v>
+        <v>-0.05145438852679684</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.01151497426360289</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
         <v>-0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.01960528052063932</v>
+        <v>0.06312401734160317</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.01807402722670667</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.007000038587884707</v>
+        <v>-0.07046970651706097</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0.003258460864160961</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
@@ -6287,22 +6287,22 @@
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.02977739273447364</v>
+        <v>0.005649737267705692</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.08198169222690836</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.01107657651658849</v>
+        <v>-0.05837337683290886</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>-0.08285126565418419</v>
       </c>
       <c r="BI11" t="n">
         <v>-0</v>
@@ -6311,28 +6311,28 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.0515934614118158</v>
+        <v>0.08997317702874659</v>
       </c>
       <c r="BN11" t="n">
         <v>-0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.01894770913054654</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.01045248697339149</v>
+        <v>0.046952661706695</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.04194148483330557</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
         <v>0</v>
@@ -6344,19 +6344,19 @@
         <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0.00788221458544003</v>
+        <v>0.005948749601782781</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.01299111332747177</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.01523736026967288</v>
+        <v>-0.01698076285864772</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>0.002006922168451553</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
@@ -6365,85 +6365,85 @@
         <v>0</v>
       </c>
       <c r="CC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.03052613423539492</v>
+        <v>0.01025442956341493</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0.01898098187337995</v>
+        <v>0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01490732897446868</v>
+        <v>0.01993208158208705</v>
       </c>
       <c r="CI11" t="n">
-        <v>-0</v>
+        <v>0.02939300629758319</v>
       </c>
       <c r="CJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL11" t="n">
         <v>-0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.02246154223101555</v>
+        <v>-0.003845997257540931</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0.018479237059745</v>
+        <v>-0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.07451947312199761</v>
+        <v>0.02127993538163792</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>0.02647547888069253</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
       </c>
       <c r="CT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU11" t="n">
         <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.03066352278226732</v>
+        <v>0.02437046337995839</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0.01630395827642438</v>
+        <v>-0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.009946294908841732</v>
+        <v>0.0180450700039775</v>
       </c>
       <c r="DA11" t="n">
-        <v>0</v>
+        <v>0.01870732885789028</v>
       </c>
       <c r="DB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD11" t="n">
         <v>0</v>
@@ -6452,103 +6452,103 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.02655017259660969</v>
+        <v>0.01870666985183548</v>
       </c>
       <c r="DG11" t="n">
         <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>-0.02276542730655566</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.01090317610396964</v>
+        <v>-0.006857992685443973</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0</v>
+        <v>0.02706548692725664</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM11" t="n">
         <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.01949650651420091</v>
+        <v>0.008454850164377744</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.005252890352322094</v>
+        <v>0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.02839061204174318</v>
+        <v>0.02773998555624205</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>-0.007252209393700915</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.02472417468117895</v>
+        <v>-0.009582949614666204</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.03159821590266854</v>
+        <v>0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.003481124466484924</v>
+        <v>-0.03503233813249097</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0</v>
+        <v>-0.01228085284398256</v>
       </c>
       <c r="EC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE11" t="n">
         <v>-0</v>
       </c>
       <c r="EF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.03348411845189479</v>
+        <v>0.0186785895551904</v>
       </c>
       <c r="EH11" t="n">
         <v>-0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0.0133199737558201</v>
+        <v>0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.01471960303595658</v>
+        <v>0.00859659915679456</v>
       </c>
       <c r="EK11" t="n">
-        <v>0</v>
+        <v>0.005435677615162528</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
         <v>0</v>
@@ -6560,19 +6560,19 @@
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.009374835818236983</v>
+        <v>0.007011453806346751</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.001890280120554721</v>
+        <v>0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.03684704842866959</v>
+        <v>0.007097984400369265</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.01786097275298205</v>
       </c>
       <c r="EU11" t="n">
         <v>0</v>
@@ -6581,55 +6581,55 @@
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.02765764021209161</v>
+        <v>0.01741030312155034</v>
       </c>
       <c r="EZ11" t="n">
         <v>-0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0.01660097728825654</v>
+        <v>0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.01813907673671951</v>
+        <v>0.02467364925207881</v>
       </c>
       <c r="FC11" t="n">
-        <v>0</v>
+        <v>0.02488249548060708</v>
       </c>
       <c r="FD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
         <v>-0</v>
       </c>
       <c r="FG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.04088939460575265</v>
+        <v>-0.004333476382012705</v>
       </c>
       <c r="FI11" t="n">
         <v>0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0.03713115409957576</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.02211347096075346</v>
+        <v>-0.05032848945922486</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>0.03899328528266449</v>
       </c>
       <c r="FM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
         <v>-0</v>
@@ -6638,55 +6638,55 @@
         <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>-0.004904990060906515</v>
+        <v>-0.01609290963891969</v>
       </c>
       <c r="FR11" t="n">
         <v>0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.07292684558227043</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.04761918674386176</v>
+        <v>0.03171223567700426</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>0.0429811729857278</v>
       </c>
       <c r="FV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW11" t="n">
         <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.008941880139650154</v>
+        <v>-0.04099944574310734</v>
       </c>
       <c r="GA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.02562126389406158</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
         <v>-0</v>
       </c>
       <c r="GD11" t="n">
-        <v>0</v>
+        <v>0.03382681837060292</v>
       </c>
       <c r="GE11" t="n">
         <v>0</v>
       </c>
       <c r="GF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG11" t="n">
         <v>0</v>
@@ -6694,19 +6694,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.378124878595656</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1257088163306371</v>
+        <v>-0.2733130796506011</v>
       </c>
       <c r="E12" t="n">
-        <v>0.003573909086590176</v>
+        <v>-0.1226292057509738</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -6715,34 +6715,34 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1347036799072033</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.2517226750030906</v>
       </c>
       <c r="L12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1472813239874695</v>
+        <v>-0.2831430067298677</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.06596327534467089</v>
+        <v>-0.1121719640071306</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.1438614220000026</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -6751,43 +6751,43 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.04046266717227329</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.00725002999944142</v>
+        <v>-0.005800475441373032</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.01742984145573643</v>
+        <v>-0.02653572870747191</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
         <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.004568503648863583</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>0.1662723636510726</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.1257796969239189</v>
+        <v>0.108385029311742</v>
       </c>
       <c r="AF12" t="n">
-        <v>7.671394438348219e-05</v>
+        <v>0.03633026151399812</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
@@ -6796,25 +6796,25 @@
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.04282118563403647</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>0.04546769219821116</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.01296783862940945</v>
+        <v>-0.04134900517087813</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.03437613095291071</v>
+        <v>-0.09785175581678929</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
@@ -6823,34 +6823,34 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.01445494220011694</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.3579490354898502</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0.01237917563799663</v>
+        <v>-0.05391795559968948</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.05247174337764954</v>
+        <v>0.002834621325823204</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ12" t="n">
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.2190046045208212</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
         <v>0</v>
@@ -6859,124 +6859,124 @@
         <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>-0.01324995822945175</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.1553471415827039</v>
+        <v>-0.09183558406425521</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.01796180293238682</v>
+        <v>-0.1924134717110207</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
         <v>-0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.02438799834722445</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.09967437288945973</v>
       </c>
       <c r="BN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.00575543831058421</v>
+        <v>0.07609120666476359</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.0118830021173121</v>
+        <v>0.01780672321791369</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR12" t="n">
         <v>-0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.08643457954659305</v>
+        <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU12" t="n">
         <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.08457508727216646</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>-0.01295272186219811</v>
+        <v>-0.007260268640432484</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.02779892992538312</v>
+        <v>-0.0277960286906393</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
         <v>0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0.01127030571906273</v>
+        <v>0</v>
       </c>
       <c r="CC12" t="n">
         <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>-0.1071730981805553</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0.03401428071566888</v>
+        <v>0.01387602752290927</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.02876686303419927</v>
+        <v>-0.01184999181078431</v>
       </c>
       <c r="CI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.05256405285765976</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>0.03572634179581544</v>
       </c>
       <c r="CO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.02501997304480584</v>
+        <v>-0.1593014175027933</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.1307647801516008</v>
+        <v>-0.07899213753122027</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
@@ -6985,79 +6985,79 @@
         <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.07705898849295278</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
         <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>-0.08054157957479378</v>
       </c>
       <c r="CX12" t="n">
         <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0.03195003317258886</v>
+        <v>0.04477101773764684</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.02476647390656573</v>
+        <v>-0.006752025696656393</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.05624471284526225</v>
+        <v>-0</v>
       </c>
       <c r="DD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE12" t="n">
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.05207534824716519</v>
       </c>
       <c r="DG12" t="n">
         <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0.0144265116802172</v>
+        <v>0.03202634068116704</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.07937271732167586</v>
+        <v>0.1210441840739453</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0.01151265527744019</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
         <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.1110999843003107</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.04501913094728856</v>
+        <v>0.05854427135451871</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.04622707743447229</v>
+        <v>-0.04936209151338139</v>
       </c>
       <c r="DS12" t="n">
         <v>0</v>
@@ -7066,61 +7066,61 @@
         <v>0</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.06500832111714643</v>
+        <v>-0</v>
       </c>
       <c r="DV12" t="n">
         <v>0</v>
       </c>
       <c r="DW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.0004438977364589661</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.02881727999123793</v>
+        <v>0.09235112902357161</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.09428265573919185</v>
+        <v>0.1250737533650929</v>
       </c>
       <c r="EB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.003430089803561216</v>
+        <v>-0</v>
       </c>
       <c r="EE12" t="n">
         <v>-0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0</v>
+        <v>-0.02029625710266626</v>
       </c>
       <c r="EH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0.08335215656733512</v>
+        <v>0.04045015299880296</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.01698043617763136</v>
+        <v>0.0659367383708454</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL12" t="n">
         <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.04093299659007259</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
         <v>0</v>
@@ -7129,43 +7129,43 @@
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.07587632164871774</v>
       </c>
       <c r="EQ12" t="n">
         <v>-0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.04281254838192924</v>
+        <v>0.08153850012892963</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.07383018411319751</v>
+        <v>0.05989521966743993</v>
       </c>
       <c r="ET12" t="n">
         <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0.05649683431955493</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
         <v>0</v>
       </c>
       <c r="EX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0</v>
+        <v>-0.07674417245805827</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0.03388336039196809</v>
+        <v>0.05169358807062307</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.0371213609535605</v>
+        <v>-0.009224070370734857</v>
       </c>
       <c r="FC12" t="n">
         <v>-0</v>
@@ -7174,117 +7174,117 @@
         <v>-0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.06379528532643891</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG12" t="n">
         <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>0.007533296319443714</v>
       </c>
       <c r="FI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0.03150709650127954</v>
+        <v>0.06288530570205553</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.03565990687186891</v>
+        <v>0.0715667846459308</v>
       </c>
       <c r="FL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.05541468521703209</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.03154411395321903</v>
       </c>
       <c r="FR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.06656091520454667</v>
+        <v>0.01253363637163566</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.09094702140673831</v>
+        <v>0.2158597836045986</v>
       </c>
       <c r="FU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV12" t="n">
         <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.04019295868138293</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
         <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0</v>
+        <v>0.02687395581794321</v>
       </c>
       <c r="GA12" t="n">
         <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.007152419923379552</v>
+        <v>-0.01769328572875879</v>
       </c>
       <c r="GC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.0002887312238392582</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.06773739586010517</v>
+        <v>0.08157742664299317</v>
       </c>
       <c r="C13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1757867518278917</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04457792513089966</v>
+        <v>-0.01032329612064652</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.1498532613759205</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -7293,73 +7293,73 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.06751006171246811</v>
+        <v>0.06251573698731598</v>
       </c>
       <c r="L13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1411069210529018</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.009302611825166325</v>
+        <v>-0.01384694986003267</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-0.144361825892711</v>
       </c>
       <c r="P13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.01278442993222207</v>
+        <v>0.0005672347857943953</v>
       </c>
       <c r="U13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.02328182911059936</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.04742143492406275</v>
+        <v>-0.01234502410105535</v>
       </c>
       <c r="X13" t="n">
-        <v>-0</v>
+        <v>-0.008901326409910683</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.05596357169025962</v>
+        <v>0.0258013699816003</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.07351599207050996</v>
+        <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.06768773202386698</v>
+        <v>0.04382667736609726</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0</v>
+        <v>-0.01483156882260743</v>
       </c>
       <c r="AH13" t="n">
         <v>0</v>
@@ -7374,46 +7374,46 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.02498595202122709</v>
+        <v>0.003177920889564754</v>
       </c>
       <c r="AM13" t="n">
         <v>-0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.006396888512947311</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.00684199671804086</v>
+        <v>-0.008611899194274172</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0</v>
+        <v>-0.01241228263962934</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
         <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.0627407807573736</v>
+        <v>0.07276525709726678</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.05867074714018674</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.03820387725939807</v>
+        <v>-0.009260944316436714</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0.05689638643317031</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
@@ -7425,49 +7425,49 @@
         <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.01487187948636612</v>
+        <v>0.03557798720538842</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.1033113736406071</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.01639774750875501</v>
+        <v>-0.03265159507646977</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>-0.07319383694515448</v>
       </c>
       <c r="BI13" t="n">
         <v>-0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK13" t="n">
         <v>-0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.03383423171626051</v>
+        <v>0.04178363367997673</v>
       </c>
       <c r="BN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.01011290814815213</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.01954207627835777</v>
+        <v>0.04240073955727137</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>0.001909179500058609</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
@@ -7476,28 +7476,28 @@
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0.01051713094981492</v>
+        <v>0.01154006639744645</v>
       </c>
       <c r="BW13" t="n">
         <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.02895099392004518</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.02794153746103445</v>
+        <v>0.0001302238854406938</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0</v>
+        <v>-0.02185468428920267</v>
       </c>
       <c r="CA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB13" t="n">
         <v>0</v>
@@ -7506,25 +7506,25 @@
         <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.03380632008069728</v>
+        <v>-0.01482288591317391</v>
       </c>
       <c r="CF13" t="n">
         <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>-0.04046717754159156</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.000554178773807585</v>
+        <v>-2.093808436756747e-05</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0</v>
+        <v>0.03863754876790438</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK13" t="n">
         <v>0</v>
@@ -7533,49 +7533,49 @@
         <v>-0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.03078901235133483</v>
+        <v>-0.01461937157666344</v>
       </c>
       <c r="CO13" t="n">
         <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>-0.008945703514880757</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.1295336528634487</v>
+        <v>0.01755310836278854</v>
       </c>
       <c r="CR13" t="n">
-        <v>0</v>
+        <v>-0.01417738570416528</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
         <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.01897039034292659</v>
+        <v>-0.005042212508825501</v>
       </c>
       <c r="CX13" t="n">
         <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0.04283015607694633</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.01119533044134097</v>
+        <v>-0.002281284280522716</v>
       </c>
       <c r="DA13" t="n">
-        <v>0</v>
+        <v>0.0295667767650077</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
@@ -7584,25 +7584,25 @@
         <v>-0</v>
       </c>
       <c r="DD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE13" t="n">
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.0312989022458607</v>
+        <v>0.005304406592055547</v>
       </c>
       <c r="DG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>-0.00698690033342925</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.0344347560910681</v>
+        <v>0.02228783610975511</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0</v>
+        <v>0.04141262964579338</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
@@ -7614,28 +7614,28 @@
         <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0.004575851662104327</v>
+        <v>0.01585691351219012</v>
       </c>
       <c r="DP13" t="n">
         <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.0121097644050918</v>
+        <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.03559372470797983</v>
+        <v>0.03527241155533142</v>
       </c>
       <c r="DS13" t="n">
-        <v>0</v>
+        <v>0.04035122705135693</v>
       </c>
       <c r="DT13" t="n">
         <v>0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
         <v>-0</v>
@@ -7644,103 +7644,103 @@
         <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.05565973527784986</v>
+        <v>-0.01557713298468164</v>
       </c>
       <c r="DY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.03663698632881016</v>
+        <v>0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.009180507744846899</v>
+        <v>-0.001085147223323146</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0</v>
+        <v>0.03775630044931529</v>
       </c>
       <c r="EC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED13" t="n">
         <v>-0</v>
       </c>
       <c r="EE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.02814479285569892</v>
+        <v>-0.01583596252709332</v>
       </c>
       <c r="EH13" t="n">
         <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>-0.06058584381935583</v>
+        <v>0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.02870276161864614</v>
+        <v>-0.005069143019532638</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>0.002451691143446478</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
         <v>0</v>
       </c>
       <c r="EN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO13" t="n">
         <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.01849034229090537</v>
+        <v>-0.0168899550611639</v>
       </c>
       <c r="EQ13" t="n">
         <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.004392166463802083</v>
+        <v>0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.02090440204940437</v>
+        <v>-0.02718570222890129</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0</v>
+        <v>0.04429755848748013</v>
       </c>
       <c r="EU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV13" t="n">
         <v>0</v>
       </c>
       <c r="EW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.02515992121512375</v>
+        <v>-0.009173241749480799</v>
       </c>
       <c r="EZ13" t="n">
         <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>-0.03643493077526557</v>
+        <v>0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.01175581182634363</v>
+        <v>0.005441235268620958</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>0.03101592977259685</v>
       </c>
       <c r="FD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE13" t="n">
         <v>0</v>
@@ -7749,49 +7749,49 @@
         <v>-0</v>
       </c>
       <c r="FG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.02180231667630244</v>
+        <v>-0.02610793744701512</v>
       </c>
       <c r="FI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>-0.05216715991822885</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.002593803316084551</v>
+        <v>-0.008465150408975899</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>0.03719787000569459</v>
       </c>
       <c r="FM13" t="n">
         <v>-0</v>
       </c>
       <c r="FN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.02107623696954926</v>
+        <v>-0.001387564004349046</v>
       </c>
       <c r="FR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.004180885567348766</v>
+        <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.0568258997863857</v>
+        <v>0.03784675797383504</v>
       </c>
       <c r="FU13" t="n">
-        <v>0</v>
+        <v>-0.01013058605209463</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
@@ -7806,25 +7806,25 @@
         <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.03271839441800355</v>
+        <v>-0.02247492688832588</v>
       </c>
       <c r="GA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.02965625729909641</v>
+        <v>-0</v>
       </c>
       <c r="GC13" t="n">
         <v>-0</v>
       </c>
       <c r="GD13" t="n">
-        <v>0</v>
+        <v>0.01808843347046455</v>
       </c>
       <c r="GE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG13" t="n">
         <v>0</v>
@@ -7832,55 +7832,55 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0.7393328673483063</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2173970720987718</v>
+        <v>-0.3582462790928939</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.008552836394884336</v>
+        <v>-0.1463697397491049</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1011023127622282</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.4141180663614047</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1633320184327117</v>
+        <v>-0.3474592389823863</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.05225720627886993</v>
+        <v>-0.1661205865534058</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1334096759513273</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -7889,43 +7889,43 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.1436890162579034</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.007642143367754181</v>
+        <v>-0.03001865469936027</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.03179177860008871</v>
+        <v>0.01199547336725208</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.02265314501082876</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
         <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0</v>
+        <v>0.1338365753605902</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.06528573642308638</v>
+        <v>0.01999125289675142</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.01543720071659598</v>
+        <v>0.02062150053987606</v>
       </c>
       <c r="AG14" t="n">
         <v>-0</v>
@@ -7934,79 +7934,79 @@
         <v>-0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.0179175160766938</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0</v>
+        <v>0.002381461056556593</v>
       </c>
       <c r="AM14" t="n">
         <v>-0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.06869456150002513</v>
+        <v>-0.08943551894786346</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.01278219008700768</v>
+        <v>-0.1098155461450637</v>
       </c>
       <c r="AP14" t="n">
         <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.03395367117025559</v>
+        <v>-0</v>
       </c>
       <c r="AS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
         <v>-0</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0</v>
+        <v>0.5843541440462621</v>
       </c>
       <c r="AV14" t="n">
         <v>-0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.1108351395958208</v>
+        <v>-0.002674616181336853</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.0002514825137105485</v>
+        <v>0.0772565189886215</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0.1443280576069667</v>
+        <v>-0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>0.07284007187368589</v>
       </c>
       <c r="BE14" t="n">
         <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.09528501830540773</v>
+        <v>-0.2173372476388069</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.04732865810433411</v>
+        <v>-0.294026035679511</v>
       </c>
       <c r="BH14" t="n">
         <v>-0</v>
@@ -8015,34 +8015,34 @@
         <v>-0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0.00897911640025759</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
         <v>-0</v>
       </c>
       <c r="BL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM14" t="n">
-        <v>-0</v>
+        <v>0.1815794044764897</v>
       </c>
       <c r="BN14" t="n">
         <v>0</v>
       </c>
       <c r="BO14" t="n">
-        <v>-0.002370166600048887</v>
+        <v>0.04319435735206634</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.002693053471366239</v>
+        <v>0.2435814389440039</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.07480151507975508</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
         <v>-0</v>
@@ -8051,43 +8051,43 @@
         <v>-0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>0.2570084533689166</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.07576077174106979</v>
+        <v>-0.005736268555961897</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.007516795282539446</v>
+        <v>0.01704147005912708</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB14" t="n">
-        <v>-0.0346894646939838</v>
+        <v>0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD14" t="n">
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>-0</v>
+        <v>-0.1566415554087251</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>-0.06154780504976515</v>
+        <v>0.0390347259948625</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.02394269812347316</v>
+        <v>-0.016513140541541</v>
       </c>
       <c r="CI14" t="n">
         <v>-0</v>
@@ -8096,52 +8096,52 @@
         <v>-0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.03426853414651818</v>
+        <v>0</v>
       </c>
       <c r="CL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0.003482718419654838</v>
       </c>
       <c r="CO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0.05230930500632924</v>
+        <v>-0.1450546789679125</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.09807299397789961</v>
+        <v>-0.1476469088150788</v>
       </c>
       <c r="CR14" t="n">
         <v>0</v>
       </c>
       <c r="CS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.05059044369067395</v>
+        <v>-0</v>
       </c>
       <c r="CU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV14" t="n">
         <v>-0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0</v>
+        <v>-0.1355035397743315</v>
       </c>
       <c r="CX14" t="n">
         <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>-0.05304370566235094</v>
+        <v>0.06804731129753708</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.02069559210361718</v>
+        <v>-0.01144375353941781</v>
       </c>
       <c r="DA14" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.02338582141903495</v>
+        <v>-0</v>
       </c>
       <c r="DD14" t="n">
         <v>-0</v>
@@ -8159,16 +8159,16 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>0.009361681127414784</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.001393012872703516</v>
+        <v>0.04218073402523247</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.04047816540773234</v>
+        <v>0.0296627822218841</v>
       </c>
       <c r="DJ14" t="n">
         <v>-0</v>
@@ -8177,34 +8177,34 @@
         <v>0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0.02257078961844507</v>
+        <v>-0</v>
       </c>
       <c r="DM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0.05302446108120482</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.003217671313546688</v>
+        <v>0.06713263234349556</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.01290489226562487</v>
+        <v>-0.04465375856345443</v>
       </c>
       <c r="DS14" t="n">
         <v>0</v>
       </c>
       <c r="DT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.05304666940296739</v>
+        <v>0</v>
       </c>
       <c r="DV14" t="n">
         <v>-0</v>
@@ -8213,43 +8213,43 @@
         <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>-0</v>
+        <v>0.06983558809059812</v>
       </c>
       <c r="DY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.01359557674146062</v>
+        <v>-0.001289874998924258</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.02356437477687468</v>
+        <v>-0.03714000333891646</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
         <v>0</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.03292497491043814</v>
+        <v>-0</v>
       </c>
       <c r="EE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>-0</v>
+        <v>-0.1164007995873581</v>
       </c>
       <c r="EH14" t="n">
         <v>0</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0.09305999387302528</v>
+        <v>0.07750818709390188</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.03362008421537385</v>
+        <v>0.09039748389395195</v>
       </c>
       <c r="EK14" t="n">
         <v>0</v>
@@ -8258,52 +8258,52 @@
         <v>-0</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.04230714972015805</v>
+        <v>-0</v>
       </c>
       <c r="EN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO14" t="n">
         <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>-0</v>
+        <v>-0.1308723212628531</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0.02568703574695262</v>
+        <v>0.05984774186035339</v>
       </c>
       <c r="ES14" t="n">
-        <v>-0.0381713152978657</v>
+        <v>0.02849808249566096</v>
       </c>
       <c r="ET14" t="n">
         <v>-0</v>
       </c>
       <c r="EU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV14" t="n">
-        <v>1.779876364838955e-05</v>
+        <v>-0</v>
       </c>
       <c r="EW14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX14" t="n">
         <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>-0</v>
+        <v>-0.1421140393088027</v>
       </c>
       <c r="EZ14" t="n">
         <v>0</v>
       </c>
       <c r="FA14" t="n">
-        <v>-0.05649344561669405</v>
+        <v>0.05199504959249526</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.03045345250515164</v>
+        <v>0.01865452714726427</v>
       </c>
       <c r="FC14" t="n">
         <v>-0</v>
@@ -8312,246 +8312,246 @@
         <v>-0</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.03682831247091648</v>
+        <v>0</v>
       </c>
       <c r="FF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>-0</v>
+        <v>-0.01640386394279725</v>
       </c>
       <c r="FI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>-0.06262574623378145</v>
+        <v>0.09093644858569626</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.08588115229590447</v>
+        <v>-0.04752091342332028</v>
       </c>
       <c r="FL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.03263060498984404</v>
+        <v>0</v>
       </c>
       <c r="FO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP14" t="n">
         <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>-0</v>
+        <v>-0.01077299943182079</v>
       </c>
       <c r="FR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS14" t="n">
-        <v>-0.004185976854334339</v>
+        <v>-0.04052424620081697</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.02350912207272497</v>
+        <v>-0.01819285643652068</v>
       </c>
       <c r="FU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.04721039286939629</v>
+        <v>-0</v>
       </c>
       <c r="FX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY14" t="n">
         <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>-0</v>
+        <v>0.02606721046393131</v>
       </c>
       <c r="GA14" t="n">
         <v>-0</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.004770599240462269</v>
+        <v>-0.071008982809843</v>
       </c>
       <c r="GC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE14" t="n">
         <v>-0</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.03478735122513953</v>
+        <v>0</v>
       </c>
       <c r="GG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>-0.546209796427664</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1375531215110435</v>
+        <v>0.1858654900802911</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1223500388866118</v>
+        <v>0.1327764729324755</v>
       </c>
       <c r="F15" t="n">
         <v>-0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
         <v>-0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3076173955861157</v>
+        <v>-0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K15" t="n">
-        <v>-0</v>
+        <v>-0.37213556805839</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.06166656353941446</v>
+        <v>0.2160029379438447</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.1110322405906795</v>
+        <v>0.05225728838798648</v>
       </c>
       <c r="O15" t="n">
         <v>-0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q15" t="n">
         <v>-0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2668683845813738</v>
+        <v>-0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>-0.1268024287414563</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.07938460775422328</v>
+        <v>0.0302583837307627</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1151174442956184</v>
+        <v>-0.0217818627105091</v>
       </c>
       <c r="X15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.07423256758725748</v>
+        <v>-0</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0</v>
+        <v>-0.2003168435292739</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.04540066977180325</v>
+        <v>0.0632766536945247</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.04461074614247324</v>
+        <v>0.03453334968552078</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-0.1060138092050886</v>
+        <v>-0</v>
       </c>
       <c r="AK15" t="n">
         <v>-0</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0</v>
+        <v>-0.05128912688076755</v>
       </c>
       <c r="AM15" t="n">
         <v>-0</v>
       </c>
       <c r="AN15" t="n">
-        <v>-0.03444465565426109</v>
+        <v>0.03745176180852271</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.02765359551803501</v>
+        <v>0.03335720884946377</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR15" t="n">
         <v>-0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.02402500860888258</v>
+        <v>-0</v>
       </c>
       <c r="AT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0</v>
+        <v>-0.3332650885688035</v>
       </c>
       <c r="AV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW15" t="n">
-        <v>-0.1156918655776811</v>
+        <v>-0.07367668034459918</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.05264348305020157</v>
+        <v>0.02629328644358156</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ15" t="n">
         <v>0</v>
@@ -8560,76 +8560,76 @@
         <v>-0</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.1732298323579081</v>
+        <v>-0</v>
       </c>
       <c r="BC15" t="n">
         <v>-0</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0</v>
+        <v>-0.1035075498902999</v>
       </c>
       <c r="BE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.03092583154664987</v>
+        <v>0.1154469530572646</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0.05665542052554988</v>
+        <v>0.3459586580195336</v>
       </c>
       <c r="BH15" t="n">
         <v>-0</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.02428160119685699</v>
+        <v>-0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>-0</v>
+        <v>0.009215395773566226</v>
       </c>
       <c r="BN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>-0.01874966127024322</v>
+        <v>-0.0534790711153284</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.03268486549068282</v>
+        <v>0.0951806975556547</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS15" t="n">
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>-0.07989016664785062</v>
+        <v>-0</v>
       </c>
       <c r="BU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>-0</v>
+        <v>-0.2083581837171749</v>
       </c>
       <c r="BW15" t="n">
         <v>-0</v>
       </c>
       <c r="BX15" t="n">
-        <v>-0.1013020778738588</v>
+        <v>0.05783055174457597</v>
       </c>
       <c r="BY15" t="n">
-        <v>-0.01542607820826979</v>
+        <v>-0.03962131997593572</v>
       </c>
       <c r="BZ15" t="n">
         <v>-0</v>
@@ -8638,106 +8638,106 @@
         <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.1894248513788611</v>
+        <v>-0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>0.117010121387529</v>
       </c>
       <c r="CF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.04170197978037</v>
+        <v>-0.0326644026118451</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.01547313852832936</v>
+        <v>0.05868676450726951</v>
       </c>
       <c r="CI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL15" t="n">
-        <v>-0.04403167369115092</v>
+        <v>-0</v>
       </c>
       <c r="CM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0.04281947951734864</v>
       </c>
       <c r="CO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.04483078894303846</v>
+        <v>0.00155283021658989</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-0.115564111390276</v>
+        <v>-0.0007164144174470265</v>
       </c>
       <c r="CR15" t="n">
         <v>-0</v>
       </c>
       <c r="CS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT15" t="n">
         <v>0</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.05492450825240394</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>-0</v>
+        <v>0.119284090763695</v>
       </c>
       <c r="CX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.04949623008795331</v>
+        <v>-0.048186692224403</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.001314184728707588</v>
+        <v>0.03864045779138892</v>
       </c>
       <c r="DA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD15" t="n">
-        <v>-0.05674183433610898</v>
+        <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>0.1210130971474241</v>
       </c>
       <c r="DG15" t="n">
         <v>-0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.02938547591416521</v>
+        <v>-0.03753142871149698</v>
       </c>
       <c r="DI15" t="n">
-        <v>-0.001456944271165473</v>
+        <v>-0.0009523626789875843</v>
       </c>
       <c r="DJ15" t="n">
         <v>-0</v>
@@ -8749,79 +8749,79 @@
         <v>-0</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.007170948276067049</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
         <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>0.1222907463060082</v>
       </c>
       <c r="DP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>-0.01698742410725066</v>
+        <v>-0.07007462677468208</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.04417663431661959</v>
+        <v>0.1480871025717462</v>
       </c>
       <c r="DS15" t="n">
         <v>-0</v>
       </c>
       <c r="DT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.07325703864379757</v>
+        <v>-0</v>
       </c>
       <c r="DW15" t="n">
         <v>-0</v>
       </c>
       <c r="DX15" t="n">
-        <v>-0</v>
+        <v>-0.05383479355006177</v>
       </c>
       <c r="DY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>-0.0226116614509146</v>
+        <v>0.1500510067302466</v>
       </c>
       <c r="EA15" t="n">
-        <v>-0.04038489758730778</v>
+        <v>-0.08061568507191445</v>
       </c>
       <c r="EB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC15" t="n">
         <v>0</v>
       </c>
       <c r="ED15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.04730798961682019</v>
+        <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>0.06462548997400741</v>
       </c>
       <c r="EH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.06867855478984176</v>
+        <v>-0.00896180514946978</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.1073924839887883</v>
+        <v>-0.0659901196659534</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL15" t="n">
         <v>-0</v>
@@ -8830,142 +8830,142 @@
         <v>0</v>
       </c>
       <c r="EN15" t="n">
-        <v>-0.06974945426968729</v>
+        <v>-0</v>
       </c>
       <c r="EO15" t="n">
         <v>-0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>0.06494090652742199</v>
       </c>
       <c r="EQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.04307604480769807</v>
+        <v>0.06132792995975652</v>
       </c>
       <c r="ES15" t="n">
-        <v>-0.04548073741468601</v>
+        <v>-0.08258227407552629</v>
       </c>
       <c r="ET15" t="n">
         <v>0</v>
       </c>
       <c r="EU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>-0.06465869277243791</v>
+        <v>0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>0.136917296192299</v>
       </c>
       <c r="EZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.03162048637260733</v>
+        <v>-0.06255594444344474</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.01262966707159918</v>
+        <v>0.03296499847453138</v>
       </c>
       <c r="FC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF15" t="n">
-        <v>-0.07115588071432809</v>
+        <v>-0</v>
       </c>
       <c r="FG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>0</v>
+        <v>0.03485771861461451</v>
       </c>
       <c r="FI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.01538298398512796</v>
+        <v>-0.05094803032547533</v>
       </c>
       <c r="FK15" t="n">
-        <v>-0.03515612657990788</v>
+        <v>0.0357131750258787</v>
       </c>
       <c r="FL15" t="n">
         <v>0</v>
       </c>
       <c r="FM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN15" t="n">
         <v>-0</v>
       </c>
       <c r="FO15" t="n">
-        <v>-0.04251313816597676</v>
+        <v>-0</v>
       </c>
       <c r="FP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>-0</v>
+        <v>0.01929992768514632</v>
       </c>
       <c r="FR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS15" t="n">
-        <v>-0.003251164508205376</v>
+        <v>0.1452532068155744</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.0007730309048135189</v>
+        <v>-0.03566726626817218</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV15" t="n">
         <v>0</v>
       </c>
       <c r="FW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.0146309588220947</v>
+        <v>-0</v>
       </c>
       <c r="FY15" t="n">
         <v>0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0</v>
+        <v>0.06538771596408724</v>
       </c>
       <c r="GA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.03536457553008825</v>
+        <v>0.1033997663542421</v>
       </c>
       <c r="GC15" t="n">
         <v>-0</v>
       </c>
       <c r="GD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE15" t="n">
         <v>0</v>
       </c>
       <c r="GF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.01701798855456217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -8973,187 +8973,187 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.342970196518474</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.1097515327279935</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1732190090123269</v>
+        <v>-0.07141131794219462</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.20913166088937</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3318479408492518</v>
+        <v>-0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.2738566767456348</v>
       </c>
       <c r="M16" t="n">
-        <v>-0</v>
+        <v>-0.1278609334685742</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2521781864189337</v>
+        <v>-0.1402247354580816</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1776299255973275</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.406785900669597</v>
+        <v>-0</v>
       </c>
       <c r="R16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-0</v>
+        <v>0.0898069982008298</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-0.02219012329727756</v>
       </c>
       <c r="W16" t="n">
-        <v>0.08017540546217126</v>
+        <v>0.03283356269470165</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.02786125154176316</v>
+        <v>-0</v>
       </c>
       <c r="Y16" t="n">
         <v>-0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.1810477348091944</v>
+        <v>-0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB16" t="n">
         <v>-0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>0.06426784352370626</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>0.04699573585661168</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.1187142437582046</v>
+        <v>0.02461271060332367</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.03767934900960019</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.05731393637977897</v>
+        <v>-0</v>
       </c>
       <c r="AJ16" t="n">
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL16" t="n">
         <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>-0</v>
+        <v>-0.02307886884534528</v>
       </c>
       <c r="AN16" t="n">
-        <v>-0</v>
+        <v>-0.03288830313013368</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.1637494866471278</v>
+        <v>-0.08425828309962584</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.02599007208109267</v>
+        <v>0</v>
       </c>
       <c r="AQ16" t="n">
         <v>-0</v>
       </c>
       <c r="AR16" t="n">
-        <v>-0.03132362759915137</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="n">
         <v>-0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV16" t="n">
-        <v>-0</v>
+        <v>0.1595743929262506</v>
       </c>
       <c r="AW16" t="n">
-        <v>0</v>
+        <v>-0.02322273317365001</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.0583431821482516</v>
+        <v>0.1652389883018708</v>
       </c>
       <c r="AY16" t="n">
-        <v>-0.1763630163347134</v>
+        <v>-0</v>
       </c>
       <c r="AZ16" t="n">
         <v>-0</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.1388637276466832</v>
+        <v>-0</v>
       </c>
       <c r="BB16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD16" t="n">
         <v>0</v>
       </c>
       <c r="BE16" t="n">
-        <v>0</v>
+        <v>0.09872972827781143</v>
       </c>
       <c r="BF16" t="n">
-        <v>0</v>
+        <v>-0.04669224878704851</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.1596616659282362</v>
+        <v>-0.08757230315296104</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.0007995938877837233</v>
+        <v>0</v>
       </c>
       <c r="BI16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.1040870905582455</v>
+        <v>0</v>
       </c>
       <c r="BK16" t="n">
         <v>0</v>
@@ -9165,22 +9165,22 @@
         <v>-0</v>
       </c>
       <c r="BN16" t="n">
-        <v>-0</v>
+        <v>0.03983958074702239</v>
       </c>
       <c r="BO16" t="n">
-        <v>-0</v>
+        <v>0.05920005311724343</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.01380682781960441</v>
+        <v>0.129933395322922</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.03794675330109101</v>
+        <v>-0</v>
       </c>
       <c r="BR16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS16" t="n">
-        <v>-0.04022183278217653</v>
+        <v>0</v>
       </c>
       <c r="BT16" t="n">
         <v>-0</v>
@@ -9192,49 +9192,49 @@
         <v>-0</v>
       </c>
       <c r="BW16" t="n">
-        <v>0</v>
+        <v>0.05314719140800196</v>
       </c>
       <c r="BX16" t="n">
-        <v>-0</v>
+        <v>-0.01467073408744076</v>
       </c>
       <c r="BY16" t="n">
-        <v>-0.05963366215421689</v>
+        <v>0.09636595815116242</v>
       </c>
       <c r="BZ16" t="n">
-        <v>-0.05410039298727132</v>
+        <v>0</v>
       </c>
       <c r="CA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.1209158164129382</v>
+        <v>-0</v>
       </c>
       <c r="CC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD16" t="n">
         <v>-0</v>
       </c>
       <c r="CE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CF16" t="n">
-        <v>-0</v>
+        <v>-0.07198410961931657</v>
       </c>
       <c r="CG16" t="n">
-        <v>-0</v>
+        <v>0.02509372377254469</v>
       </c>
       <c r="CH16" t="n">
-        <v>-0.05157844733337544</v>
+        <v>0.002765312141491885</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.05230664666478409</v>
+        <v>0</v>
       </c>
       <c r="CJ16" t="n">
         <v>-0</v>
       </c>
       <c r="CK16" t="n">
-        <v>-0.06916825478779523</v>
+        <v>0</v>
       </c>
       <c r="CL16" t="n">
         <v>-0</v>
@@ -9243,109 +9243,109 @@
         <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO16" t="n">
-        <v>-0</v>
+        <v>0.0157259551637416</v>
       </c>
       <c r="CP16" t="n">
-        <v>-0</v>
+        <v>-0.007232599217462946</v>
       </c>
       <c r="CQ16" t="n">
-        <v>-0.06633430504509159</v>
+        <v>-0.134030388334011</v>
       </c>
       <c r="CR16" t="n">
-        <v>-0.06761023620951986</v>
+        <v>0</v>
       </c>
       <c r="CS16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT16" t="n">
-        <v>-0.01872158794078031</v>
+        <v>-0</v>
       </c>
       <c r="CU16" t="n">
         <v>-0</v>
       </c>
       <c r="CV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW16" t="n">
         <v>0</v>
       </c>
       <c r="CX16" t="n">
-        <v>0</v>
+        <v>-0.05447512606266257</v>
       </c>
       <c r="CY16" t="n">
-        <v>0</v>
+        <v>0.02501838199046121</v>
       </c>
       <c r="CZ16" t="n">
-        <v>-0.04130542351885907</v>
+        <v>0.02713359366719531</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.04841980861696608</v>
+        <v>-0</v>
       </c>
       <c r="DB16" t="n">
         <v>0</v>
       </c>
       <c r="DC16" t="n">
-        <v>-0.09309367942636287</v>
+        <v>0</v>
       </c>
       <c r="DD16" t="n">
         <v>0</v>
       </c>
       <c r="DE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF16" t="n">
         <v>-0</v>
       </c>
       <c r="DG16" t="n">
-        <v>0</v>
+        <v>-0.03707849523066748</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
+        <v>0.04550360450758483</v>
       </c>
       <c r="DI16" t="n">
-        <v>-0.02294543323906165</v>
+        <v>-0.00680358613817661</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.04363371247519435</v>
+        <v>0</v>
       </c>
       <c r="DK16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL16" t="n">
-        <v>-0.009407952419431593</v>
+        <v>0</v>
       </c>
       <c r="DM16" t="n">
         <v>-0</v>
       </c>
       <c r="DN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO16" t="n">
         <v>-0</v>
       </c>
       <c r="DP16" t="n">
-        <v>-0</v>
+        <v>-0.003156122121830755</v>
       </c>
       <c r="DQ16" t="n">
-        <v>-0</v>
+        <v>0.02956404662718841</v>
       </c>
       <c r="DR16" t="n">
-        <v>-0.04351703725698573</v>
+        <v>-0.1504434517564663</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.01907063227325786</v>
+        <v>-0</v>
       </c>
       <c r="DT16" t="n">
         <v>-0</v>
       </c>
       <c r="DU16" t="n">
-        <v>-0.05954440669347692</v>
+        <v>-0</v>
       </c>
       <c r="DV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW16" t="n">
         <v>-0</v>
@@ -9354,103 +9354,103 @@
         <v>0</v>
       </c>
       <c r="DY16" t="n">
-        <v>-0</v>
+        <v>0.06134807659331291</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0</v>
+        <v>0.003502486305162758</v>
       </c>
       <c r="EA16" t="n">
-        <v>-0.01705616428017886</v>
+        <v>-0.06389529179402857</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.03035841786205427</v>
+        <v>0</v>
       </c>
       <c r="EC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.002827243223743926</v>
+        <v>0</v>
       </c>
       <c r="EE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG16" t="n">
         <v>0</v>
       </c>
       <c r="EH16" t="n">
-        <v>-0</v>
+        <v>-0.1143604660715261</v>
       </c>
       <c r="EI16" t="n">
-        <v>-0</v>
+        <v>0.05244576720599337</v>
       </c>
       <c r="EJ16" t="n">
-        <v>-0.03598170000892885</v>
+        <v>0.06638098822878905</v>
       </c>
       <c r="EK16" t="n">
-        <v>0.06094775053423326</v>
+        <v>-0</v>
       </c>
       <c r="EL16" t="n">
         <v>-0</v>
       </c>
       <c r="EM16" t="n">
-        <v>-0.04084813593844792</v>
+        <v>-0</v>
       </c>
       <c r="EN16" t="n">
         <v>-0</v>
       </c>
       <c r="EO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ16" t="n">
-        <v>-0</v>
+        <v>-0.007602853461317472</v>
       </c>
       <c r="ER16" t="n">
-        <v>-0</v>
+        <v>0.03277591048267625</v>
       </c>
       <c r="ES16" t="n">
-        <v>-0.09175573394208292</v>
+        <v>0.02644310966726408</v>
       </c>
       <c r="ET16" t="n">
-        <v>0.05280721527229697</v>
+        <v>0</v>
       </c>
       <c r="EU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV16" t="n">
-        <v>-0.058572654410837</v>
+        <v>-0</v>
       </c>
       <c r="EW16" t="n">
         <v>-0</v>
       </c>
       <c r="EX16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EZ16" t="n">
-        <v>-0</v>
+        <v>-0.06821644659536467</v>
       </c>
       <c r="FA16" t="n">
-        <v>-0</v>
+        <v>0.04100492745836462</v>
       </c>
       <c r="FB16" t="n">
-        <v>-0.05647618953410898</v>
+        <v>0.02452896192668477</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.05443958964674164</v>
+        <v>0</v>
       </c>
       <c r="FD16" t="n">
         <v>-0</v>
       </c>
       <c r="FE16" t="n">
-        <v>-0.0972583606430828</v>
+        <v>-0</v>
       </c>
       <c r="FF16" t="n">
         <v>-0</v>
@@ -9462,79 +9462,79 @@
         <v>-0</v>
       </c>
       <c r="FI16" t="n">
-        <v>-0</v>
+        <v>-0.005158136240674969</v>
       </c>
       <c r="FJ16" t="n">
-        <v>-0</v>
+        <v>0.0011531778052613</v>
       </c>
       <c r="FK16" t="n">
-        <v>-0.0005832984300046836</v>
+        <v>0.07860345749122406</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.01323510799659321</v>
+        <v>-0</v>
       </c>
       <c r="FM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN16" t="n">
-        <v>-0.05217576764175964</v>
+        <v>0</v>
       </c>
       <c r="FO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP16" t="n">
         <v>-0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR16" t="n">
-        <v>-0</v>
+        <v>-0.004244804252954616</v>
       </c>
       <c r="FS16" t="n">
-        <v>-0</v>
+        <v>-0.007227238551969782</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.0635672076377554</v>
+        <v>0.0967967429214432</v>
       </c>
       <c r="FU16" t="n">
-        <v>-0.01119052725313215</v>
+        <v>0</v>
       </c>
       <c r="FV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW16" t="n">
-        <v>-0.01305502593443279</v>
+        <v>0</v>
       </c>
       <c r="FX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY16" t="n">
         <v>-0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GA16" t="n">
-        <v>0</v>
+        <v>0.05079393359683145</v>
       </c>
       <c r="GB16" t="n">
-        <v>0</v>
+        <v>-0.04844318096004517</v>
       </c>
       <c r="GC16" t="n">
         <v>-0</v>
       </c>
       <c r="GD16" t="n">
-        <v>-0.02973336079751409</v>
+        <v>-0</v>
       </c>
       <c r="GE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF16" t="n">
-        <v>0.0008460949701041868</v>
+        <v>0</v>
       </c>
       <c r="GG16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -9542,25 +9542,25 @@
         <v>-0</v>
       </c>
       <c r="B17" t="n">
-        <v>-0</v>
+        <v>-0.2522417388984197</v>
       </c>
       <c r="C17" t="n">
         <v>-0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2067285987046611</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01645646882389756</v>
+        <v>-0.3555819454258746</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.9376872490640334</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.1069502859000415</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -9569,25 +9569,25 @@
         <v>-0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0.2279330814242219</v>
       </c>
       <c r="L17" t="n">
         <v>-0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1821413638155416</v>
+        <v>-0</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.03629638090359824</v>
+        <v>-0.3489775222388402</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>0.7527365532307281</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.1159971466264413</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9596,268 +9596,268 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.03505482237846016</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.002209058091511386</v>
+        <v>-0</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.04481881096565907</v>
+        <v>0.0178964885517884</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>0.1032566813602111</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.02422805005828186</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
         <v>-0</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0</v>
+        <v>-0.07120656509002858</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.05084038643070929</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.02774277760895666</v>
+        <v>-0.1191441618537049</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0</v>
+        <v>0.0709193104892494</v>
       </c>
       <c r="AH17" t="n">
         <v>-0</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.003739732892878528</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL17" t="n">
-        <v>-0</v>
+        <v>0.01210109388651744</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.04836897350106035</v>
+        <v>-0</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.04060773144270543</v>
+        <v>-0.08212798343526145</v>
       </c>
       <c r="AP17" t="n">
-        <v>-0</v>
+        <v>0.1339004182639238</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR17" t="n">
-        <v>-0.01830678067973099</v>
+        <v>0</v>
       </c>
       <c r="AS17" t="n">
         <v>-0</v>
       </c>
       <c r="AT17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>-0</v>
+        <v>-0.06864689510343366</v>
       </c>
       <c r="AV17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.04634854890689307</v>
+        <v>-0</v>
       </c>
       <c r="AX17" t="n">
-        <v>-0.001325338576073873</v>
+        <v>-0.04417087284402579</v>
       </c>
       <c r="AY17" t="n">
-        <v>-0</v>
+        <v>0.4277892449536332</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA17" t="n">
-        <v>-0.09802032303979995</v>
+        <v>0</v>
       </c>
       <c r="BB17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD17" t="n">
-        <v>0</v>
+        <v>-0.2053232061645263</v>
       </c>
       <c r="BE17" t="n">
         <v>-0</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.09921406355515749</v>
+        <v>0</v>
       </c>
       <c r="BG17" t="n">
-        <v>-0.02011046243638866</v>
+        <v>-0.04354118282295492</v>
       </c>
       <c r="BH17" t="n">
-        <v>0</v>
+        <v>0.2797344161551931</v>
       </c>
       <c r="BI17" t="n">
         <v>-0</v>
       </c>
       <c r="BJ17" t="n">
-        <v>-0.002107600142313763</v>
+        <v>0</v>
       </c>
       <c r="BK17" t="n">
         <v>0</v>
       </c>
       <c r="BL17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM17" t="n">
-        <v>-0</v>
+        <v>-0.05731961359152688</v>
       </c>
       <c r="BN17" t="n">
         <v>0</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.01754274594095316</v>
+        <v>0</v>
       </c>
       <c r="BP17" t="n">
-        <v>-0.0003049736520081131</v>
+        <v>-0.03449166945187442</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0</v>
+        <v>0.06793768519851884</v>
       </c>
       <c r="BR17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.05931527773947672</v>
+        <v>-0</v>
       </c>
       <c r="BT17" t="n">
         <v>-0</v>
       </c>
       <c r="BU17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV17" t="n">
-        <v>0</v>
+        <v>0.005841159922310395</v>
       </c>
       <c r="BW17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.05237299812018566</v>
+        <v>-0</v>
       </c>
       <c r="BY17" t="n">
-        <v>-0.003515187217890019</v>
+        <v>-0.04587473894242786</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0</v>
+        <v>0.3034794440231323</v>
       </c>
       <c r="CA17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB17" t="n">
-        <v>-0.05361836320734711</v>
+        <v>0</v>
       </c>
       <c r="CC17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD17" t="n">
         <v>0</v>
       </c>
       <c r="CE17" t="n">
-        <v>-0</v>
+        <v>0.06631759443131352</v>
       </c>
       <c r="CF17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG17" t="n">
-        <v>-0.04220868183131022</v>
+        <v>-0</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.0138603280889629</v>
+        <v>0.08057278404511396</v>
       </c>
       <c r="CI17" t="n">
-        <v>0</v>
+        <v>-0.1225298537445581</v>
       </c>
       <c r="CJ17" t="n">
         <v>0</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.02803603773935741</v>
+        <v>-0</v>
       </c>
       <c r="CL17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN17" t="n">
-        <v>-0</v>
+        <v>0.05381396217216972</v>
       </c>
       <c r="CO17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP17" t="n">
-        <v>-0.01438835972737543</v>
+        <v>-0</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.07871764367202191</v>
+        <v>-0.2256315891771361</v>
       </c>
       <c r="CR17" t="n">
-        <v>0</v>
+        <v>0.08054893000587018</v>
       </c>
       <c r="CS17" t="n">
         <v>-0</v>
       </c>
       <c r="CT17" t="n">
-        <v>0.03374306168768097</v>
+        <v>-0</v>
       </c>
       <c r="CU17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW17" t="n">
-        <v>0</v>
+        <v>0.06840986987285604</v>
       </c>
       <c r="CX17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY17" t="n">
-        <v>-0.03464255494719421</v>
+        <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.01992332575229937</v>
+        <v>0.04745818842894682</v>
       </c>
       <c r="DA17" t="n">
-        <v>-0</v>
+        <v>-0.1177911192601196</v>
       </c>
       <c r="DB17" t="n">
         <v>-0</v>
       </c>
       <c r="DC17" t="n">
-        <v>0.02781703060865238</v>
+        <v>0</v>
       </c>
       <c r="DD17" t="n">
         <v>-0</v>
@@ -9866,52 +9866,52 @@
         <v>-0</v>
       </c>
       <c r="DF17" t="n">
-        <v>0</v>
+        <v>0.03908834128512888</v>
       </c>
       <c r="DG17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH17" t="n">
-        <v>-0.01235899368588023</v>
+        <v>-0</v>
       </c>
       <c r="DI17" t="n">
-        <v>-0.02384892582919905</v>
+        <v>-0.02965071864288949</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0</v>
+        <v>-0.01350700871079513</v>
       </c>
       <c r="DK17" t="n">
         <v>0</v>
       </c>
       <c r="DL17" t="n">
-        <v>-0.006398273698230136</v>
+        <v>-0</v>
       </c>
       <c r="DM17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN17" t="n">
         <v>0</v>
       </c>
       <c r="DO17" t="n">
-        <v>0</v>
+        <v>0.02819024879412505</v>
       </c>
       <c r="DP17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ17" t="n">
-        <v>0.04333607212220106</v>
+        <v>0</v>
       </c>
       <c r="DR17" t="n">
-        <v>-0.03274419722449613</v>
+        <v>0.006427089550697727</v>
       </c>
       <c r="DS17" t="n">
-        <v>0</v>
+        <v>0.01537158495180454</v>
       </c>
       <c r="DT17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU17" t="n">
-        <v>-0.01053078215796279</v>
+        <v>0</v>
       </c>
       <c r="DV17" t="n">
         <v>0</v>
@@ -9920,25 +9920,25 @@
         <v>0</v>
       </c>
       <c r="DX17" t="n">
-        <v>-0</v>
+        <v>-0.05509009402994478</v>
       </c>
       <c r="DY17" t="n">
         <v>-0</v>
       </c>
       <c r="DZ17" t="n">
-        <v>-0.005863693992652908</v>
+        <v>-0</v>
       </c>
       <c r="EA17" t="n">
-        <v>-0.0363840746846424</v>
+        <v>0.04832181087275859</v>
       </c>
       <c r="EB17" t="n">
-        <v>-0</v>
+        <v>-0.08093476203315494</v>
       </c>
       <c r="EC17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED17" t="n">
-        <v>-0.01290675190513192</v>
+        <v>0</v>
       </c>
       <c r="EE17" t="n">
         <v>-0</v>
@@ -9947,163 +9947,163 @@
         <v>-0</v>
       </c>
       <c r="EG17" t="n">
-        <v>0</v>
+        <v>0.006044274492454821</v>
       </c>
       <c r="EH17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI17" t="n">
-        <v>-0.08609240185122799</v>
+        <v>-0</v>
       </c>
       <c r="EJ17" t="n">
-        <v>-0.02644843877024963</v>
+        <v>0.0322212431533716</v>
       </c>
       <c r="EK17" t="n">
-        <v>0</v>
+        <v>-0.1070273534060086</v>
       </c>
       <c r="EL17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM17" t="n">
-        <v>0.03929655287871477</v>
+        <v>0</v>
       </c>
       <c r="EN17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO17" t="n">
         <v>0</v>
       </c>
       <c r="EP17" t="n">
-        <v>-0</v>
+        <v>0.1663778337495811</v>
       </c>
       <c r="EQ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER17" t="n">
-        <v>0.06075551865571351</v>
+        <v>-0</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.04246639653435677</v>
+        <v>0.04905244398374226</v>
       </c>
       <c r="ET17" t="n">
-        <v>-0</v>
+        <v>-0.06585900017908174</v>
       </c>
       <c r="EU17" t="n">
         <v>0</v>
       </c>
       <c r="EV17" t="n">
-        <v>-0.01778180989411766</v>
+        <v>-0</v>
       </c>
       <c r="EW17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX17" t="n">
         <v>0</v>
       </c>
       <c r="EY17" t="n">
-        <v>-0</v>
+        <v>0.07960054782456651</v>
       </c>
       <c r="EZ17" t="n">
         <v>0</v>
       </c>
       <c r="FA17" t="n">
-        <v>-0.03708199109447396</v>
+        <v>-0</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.01643637022391841</v>
+        <v>0.04654217997812082</v>
       </c>
       <c r="FC17" t="n">
-        <v>0</v>
+        <v>-0.122348926020055</v>
       </c>
       <c r="FD17" t="n">
         <v>0</v>
       </c>
       <c r="FE17" t="n">
-        <v>0.03717362652509117</v>
+        <v>-0</v>
       </c>
       <c r="FF17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH17" t="n">
-        <v>-0</v>
+        <v>-0.05406957219163602</v>
       </c>
       <c r="FI17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ17" t="n">
-        <v>-0.02764863649311706</v>
+        <v>-0</v>
       </c>
       <c r="FK17" t="n">
-        <v>0.01499680032601983</v>
+        <v>0.02807232655490399</v>
       </c>
       <c r="FL17" t="n">
-        <v>-0</v>
+        <v>-0.1488221249007662</v>
       </c>
       <c r="FM17" t="n">
         <v>0</v>
       </c>
       <c r="FN17" t="n">
-        <v>0.02941890457283344</v>
+        <v>-0</v>
       </c>
       <c r="FO17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ17" t="n">
-        <v>-0</v>
+        <v>-0.009889436840908469</v>
       </c>
       <c r="FR17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS17" t="n">
-        <v>0.04074020917501772</v>
+        <v>-0</v>
       </c>
       <c r="FT17" t="n">
-        <v>-0.007466228679453291</v>
+        <v>-0.02558915791179081</v>
       </c>
       <c r="FU17" t="n">
-        <v>0</v>
+        <v>-0.1846496305779978</v>
       </c>
       <c r="FV17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW17" t="n">
-        <v>0.003558346185413922</v>
+        <v>0</v>
       </c>
       <c r="FX17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY17" t="n">
         <v>-0</v>
       </c>
       <c r="FZ17" t="n">
-        <v>-0</v>
+        <v>0.06109323969379531</v>
       </c>
       <c r="GA17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB17" t="n">
-        <v>0.004118375808741958</v>
+        <v>0</v>
       </c>
       <c r="GC17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD17" t="n">
-        <v>0</v>
+        <v>-0.007123439085700193</v>
       </c>
       <c r="GE17" t="n">
         <v>-0</v>
       </c>
       <c r="GF17" t="n">
-        <v>-0.002781076311349367</v>
+        <v>0</v>
       </c>
       <c r="GG17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
